--- a/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silve\Google Drive\SISS\ProfiloSanitarioSintetico\ValidazioneFSE\A1#111#MARCOSILVESTRISXX\MARCO_ANTONIO_SILVESTRIS\LINNEO\FSE_V.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A43845-C79F-4AF8-A3E1-B5F9ADF58F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5FE55-5BC6-434F-985F-1B01BCB01C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="469">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1754,9 +1754,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.1e3ad2416e26de00495f46d9e4c227310d5aa9bc8d6363cc28ef03d57a28b670.20d7f7a3fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Linneo consente di generare un PSS escludendo le sezioni opzionali</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation",, con esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -1797,18 +1794,12 @@
     <t>Linneo anche in assenza di dati relativi allo stato funzionale del paziente invia cmq la sezione con l'indicazione di nessuna informazione rilevata quindi non è possibile incorrere in questo scenario</t>
   </si>
   <si>
-    <t>Essendo un dato obbligatorio viene sempre inserito all'interno del CDA e non è possibile replicare lo scenario KO richiesto. L'utente non può mai incorrere in questo problema</t>
-  </si>
-  <si>
     <t>Non è possibile replicare lo scenario richiesto in quanto essendo informazioni obbligatorie se il medico inserisce delle visite o dei ricoveri i campi venogno tutti opportunamente compilati</t>
   </si>
   <si>
     <t>Non è possibile simulare tale scenario in quanto il nostro applicativo non prevede il salvataggio di una terapia o prescrizione senza la data di riferimento</t>
   </si>
   <si>
-    <t>Non è possibile simulare tale scenario in quanto il nostro applicativo richiede obbligatoriamente la valorizzazione del grado di parentela, a partire da un selettore di tipo dropdown list contenente unicamente i valori ammissibili.</t>
-  </si>
-  <si>
     <t>Non è possibile replicare lo scenario in quanto nel nostro SW il campo effectivetime è sempre presente essendo obbligatorio e viene gestito come da specifiche</t>
   </si>
   <si>
@@ -1824,7 +1815,10 @@
     <t>Linneo non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
   </si>
   <si>
-    <t>Include sezioni parametri ed esami</t>
+    <t>Non è possibile simulare tale scenario in quanto il nostro applicativo richiede obbligatoriamente la valorizzazione del grado di parentela, a partire da un selettore di tipo combo list contenente unicamente i valori ammissibili.</t>
+  </si>
+  <si>
+    <t>Essendo un dato richiesto viene sempre inserito all'interno del CDA e non è possibile replicare lo scenario KO richiesto. L'utente non può mai incorrere in questo problema</t>
   </si>
 </sst>
 </file>
@@ -3928,10 +3922,10 @@
   <dimension ref="A1:W748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3978,7 +3972,7 @@
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" s="60"/>
       <c r="F2" s="6"/>
@@ -4438,9 +4432,7 @@
       <c r="J15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="38" t="s">
-        <v>233</v>
-      </c>
+      <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38" t="s">
         <v>62</v>
@@ -8692,7 +8684,7 @@
         <v>233</v>
       </c>
       <c r="L129" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M129" s="38"/>
       <c r="N129" s="38"/>
@@ -8735,7 +8727,7 @@
         <v>233</v>
       </c>
       <c r="L130" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M130" s="38"/>
       <c r="N130" s="38"/>
@@ -8778,7 +8770,7 @@
         <v>233</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -8821,7 +8813,7 @@
         <v>233</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -8864,7 +8856,7 @@
         <v>233</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8907,7 +8899,7 @@
         <v>233</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8950,7 +8942,7 @@
         <v>233</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8993,7 +8985,7 @@
         <v>233</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9036,7 +9028,7 @@
         <v>233</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9079,7 +9071,7 @@
         <v>233</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9122,7 +9114,7 @@
         <v>233</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9165,7 +9157,7 @@
         <v>233</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9208,7 +9200,7 @@
         <v>233</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9251,7 +9243,7 @@
         <v>233</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9294,7 +9286,7 @@
         <v>233</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9337,7 +9329,7 @@
         <v>233</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -10749,7 +10741,7 @@
         <v>233</v>
       </c>
       <c r="L182" s="38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -10950,7 +10942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="35">
         <v>475</v>
       </c>
@@ -11018,12 +11010,8 @@
       <c r="J189" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K189" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="L189" s="50" t="s">
-        <v>447</v>
-      </c>
+      <c r="K189" s="50"/>
+      <c r="L189" s="50"/>
       <c r="M189" s="50"/>
       <c r="N189" s="50"/>
       <c r="O189" s="50"/>
@@ -11052,29 +11040,25 @@
         <v>429</v>
       </c>
       <c r="E190" s="47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F190" s="48">
         <v>46047</v>
       </c>
       <c r="G190" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="H190" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="H190" s="48" t="s">
+      <c r="I190" s="49" t="s">
         <v>450</v>
-      </c>
-      <c r="I190" s="49" t="s">
-        <v>451</v>
       </c>
       <c r="J190" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K190" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="L190" s="50" t="s">
-        <v>470</v>
-      </c>
+      <c r="K190" s="50"/>
+      <c r="L190" s="50"/>
       <c r="M190" s="50"/>
       <c r="N190" s="50"/>
       <c r="O190" s="50"/>
@@ -11114,7 +11098,7 @@
         <v>233</v>
       </c>
       <c r="L191" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
@@ -17377,12 +17361,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17526,6 +17504,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17536,23 +17520,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17570,6 +17537,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silve\Google Drive\SISS\ProfiloSanitarioSintetico\ValidazioneFSE\A1#111#MARCOSILVESTRISXX\MARCO_ANTONIO_SILVESTRIS\LINNEO\FSE_V.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5FE55-5BC6-434F-985F-1B01BCB01C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA1D85-3699-48A0-A46A-CF2B7BF23082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="470">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1737,9 +1737,6 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene comunicato errore timeout </t>
-  </si>
-  <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation",, con esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 23" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
@@ -1819,6 +1816,12 @@
   </si>
   <si>
     <t>Essendo un dato richiesto viene sempre inserito all'interno del CDA e non è possibile replicare lo scenario KO richiesto. L'utente non può mai incorrere in questo problema</t>
+  </si>
+  <si>
+    <t>Timeout, il tempo è scaduto è necessario ritentare l'operazione</t>
+  </si>
+  <si>
+    <t>Viene comunicato errore timeout, il medico può ritentare invio</t>
   </si>
 </sst>
 </file>
@@ -3922,10 +3925,10 @@
   <dimension ref="A1:W748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L130" sqref="L130"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3937,7 +3940,9 @@
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="18" width="36.42578125" customWidth="1"/>
+    <col min="11" max="14" width="36.42578125" customWidth="1"/>
+    <col min="15" max="15" width="52" customWidth="1"/>
+    <col min="16" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="50.5703125" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
@@ -3972,7 +3977,7 @@
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D2" s="60"/>
       <c r="F2" s="6"/>
@@ -4440,7 +4445,9 @@
       <c r="N15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="38"/>
+      <c r="O15" s="38" t="s">
+        <v>468</v>
+      </c>
       <c r="P15" s="38" t="s">
         <v>224</v>
       </c>
@@ -4451,7 +4458,7 @@
         <v>62</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
@@ -8684,7 +8691,7 @@
         <v>233</v>
       </c>
       <c r="L129" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M129" s="38"/>
       <c r="N129" s="38"/>
@@ -8727,7 +8734,7 @@
         <v>233</v>
       </c>
       <c r="L130" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M130" s="38"/>
       <c r="N130" s="38"/>
@@ -8770,7 +8777,7 @@
         <v>233</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -8813,7 +8820,7 @@
         <v>233</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -8856,7 +8863,7 @@
         <v>233</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8899,7 +8906,7 @@
         <v>233</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8942,7 +8949,7 @@
         <v>233</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8985,7 +8992,7 @@
         <v>233</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9028,7 +9035,7 @@
         <v>233</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9071,7 +9078,7 @@
         <v>233</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9114,7 +9121,7 @@
         <v>233</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9157,7 +9164,7 @@
         <v>233</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9200,7 +9207,7 @@
         <v>233</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9243,7 +9250,7 @@
         <v>233</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9286,7 +9293,7 @@
         <v>233</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9329,7 +9336,7 @@
         <v>233</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -10741,7 +10748,7 @@
         <v>233</v>
       </c>
       <c r="L182" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -10993,19 +11000,19 @@
         <v>428</v>
       </c>
       <c r="E189" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F189" s="48">
         <v>46047</v>
       </c>
       <c r="G189" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="H189" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="H189" s="48" t="s">
+      <c r="I189" s="49" t="s">
         <v>445</v>
-      </c>
-      <c r="I189" s="49" t="s">
-        <v>446</v>
       </c>
       <c r="J189" s="50" t="s">
         <v>62</v>
@@ -11040,19 +11047,19 @@
         <v>429</v>
       </c>
       <c r="E190" s="47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F190" s="48">
         <v>46047</v>
       </c>
       <c r="G190" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="H190" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="H190" s="48" t="s">
+      <c r="I190" s="49" t="s">
         <v>449</v>
-      </c>
-      <c r="I190" s="49" t="s">
-        <v>450</v>
       </c>
       <c r="J190" s="50" t="s">
         <v>62</v>
@@ -11098,7 +11105,7 @@
         <v>233</v>
       </c>
       <c r="L191" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
@@ -17361,6 +17368,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17504,35 +17526,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17555,9 +17552,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silve\Google Drive\SISS\ProfiloSanitarioSintetico\ValidazioneFSE\A1#111#MARCOSILVESTRISXX\MARCO_ANTONIO_SILVESTRIS\LINNEO\FSE_V.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA1D85-3699-48A0-A46A-CF2B7BF23082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69517F25-FB47-4C3C-AE54-7DE98AE7BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1742,28 +1742,10 @@
 </t>
   </si>
   <si>
-    <t>2026-01-25T15:43:00Z</t>
-  </si>
-  <si>
-    <t>07bf9b3e73fbea8b1f941c4db0fbbdf3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.1e3ad2416e26de00495f46d9e4c227310d5aa9bc8d6363cc28ef03d57a28b670.20d7f7a3fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation",, con esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2026-01-25T15:45:00Z</t>
-  </si>
-  <si>
-    <t>0cec36f606ad68157c92919c9e5b6961</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.09bc202ba8a2640b4090223c3c01a50ad7d2866083f32fbc3fe20f8ffc38f83d.58c3983b6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>In base alle indicazioni contenute nella e-mail "PNRR M6C2 I1.3.1_DTD_FSE 2.0 - Processo di accreditamento (convalida) Profilo Sanitario Sintentico", questo caso di test non si applica per i software che non hanno ancora completato la procedura di accreditamento alla Fase 1, ma è riservato a quei software che hanno già superato questo accreditamento.</t>
   </si>
   <si>
@@ -1822,6 +1804,24 @@
   </si>
   <si>
     <t>Viene comunicato errore timeout, il medico può ritentare invio</t>
+  </si>
+  <si>
+    <t>2026-02-03T16:26:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T16:28:00Z</t>
+  </si>
+  <si>
+    <t>da38b971313d885a962089de3556dc3b</t>
+  </si>
+  <si>
+    <t>7f044f718dc9a54d1190f756d58eaf1c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.cd09f02c46fbe343968f9df9968c4b6e73dc19b0ebb914931d83a68b7c102ba5.a34b2e74d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.64667ffc3f8c55ab93530eeaf279b1ea638fd7f9007fecb719953a37f4f04fe4.7c882e2e44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3925,10 +3925,10 @@
   <dimension ref="A1:W748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="J190" sqref="J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D2" s="60"/>
       <c r="F2" s="6"/>
@@ -4446,7 +4446,7 @@
         <v>62</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>224</v>
@@ -4458,7 +4458,7 @@
         <v>62</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
@@ -8691,7 +8691,7 @@
         <v>233</v>
       </c>
       <c r="L129" s="38" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M129" s="38"/>
       <c r="N129" s="38"/>
@@ -8734,7 +8734,7 @@
         <v>233</v>
       </c>
       <c r="L130" s="38" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M130" s="38"/>
       <c r="N130" s="38"/>
@@ -8777,7 +8777,7 @@
         <v>233</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -8820,7 +8820,7 @@
         <v>233</v>
       </c>
       <c r="L132" s="38" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -8863,7 +8863,7 @@
         <v>233</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8906,7 +8906,7 @@
         <v>233</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8949,7 +8949,7 @@
         <v>233</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8992,7 +8992,7 @@
         <v>233</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9035,7 +9035,7 @@
         <v>233</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9078,7 +9078,7 @@
         <v>233</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9121,7 +9121,7 @@
         <v>233</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9164,7 +9164,7 @@
         <v>233</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9207,7 +9207,7 @@
         <v>233</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9250,7 +9250,7 @@
         <v>233</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9293,7 +9293,7 @@
         <v>233</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9336,7 +9336,7 @@
         <v>233</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -10748,7 +10748,7 @@
         <v>233</v>
       </c>
       <c r="L182" s="38" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M182" s="38"/>
       <c r="N182" s="38"/>
@@ -11003,16 +11003,16 @@
         <v>442</v>
       </c>
       <c r="F189" s="48">
-        <v>46047</v>
+        <v>46056</v>
       </c>
       <c r="G189" s="48" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="H189" s="48" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="I189" s="49" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="J189" s="50" t="s">
         <v>62</v>
@@ -11047,19 +11047,19 @@
         <v>429</v>
       </c>
       <c r="E190" s="47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F190" s="48">
-        <v>46047</v>
+        <v>46056</v>
       </c>
       <c r="G190" s="48" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="H190" s="48" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="I190" s="49" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="J190" s="50" t="s">
         <v>62</v>
@@ -11105,7 +11105,7 @@
         <v>233</v>
       </c>
       <c r="L191" s="50" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
@@ -15111,7 +15111,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K20 K21:K191</xm:sqref>
+          <xm:sqref>K10:K191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
           <x14:formula1>
@@ -17368,18 +17368,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17527,14 +17527,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17547,6 +17539,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MARCOSILVESTRISXX/MARCO_ANTONIO_SILVESTRIS/LINNEO/FSE_V.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silve\Google Drive\SISS\ProfiloSanitarioSintetico\ValidazioneFSE\A1#111#MARCOSILVESTRISXX\MARCO_ANTONIO_SILVESTRIS\LINNEO\FSE_V.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69517F25-FB47-4C3C-AE54-7DE98AE7BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E627D7-DF68-4F96-8117-C86C2291EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,22 +1806,22 @@
     <t>Viene comunicato errore timeout, il medico può ritentare invio</t>
   </si>
   <si>
-    <t>2026-02-03T16:26:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T16:28:00Z</t>
-  </si>
-  <si>
-    <t>da38b971313d885a962089de3556dc3b</t>
-  </si>
-  <si>
-    <t>7f044f718dc9a54d1190f756d58eaf1c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.cd09f02c46fbe343968f9df9968c4b6e73dc19b0ebb914931d83a68b7c102ba5.a34b2e74d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.64667ffc3f8c55ab93530eeaf279b1ea638fd7f9007fecb719953a37f4f04fe4.7c882e2e44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-06T13:52:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T13:54:00Z</t>
+  </si>
+  <si>
+    <t>35a14d549fb3e70654ebe46a14eeec6d</t>
+  </si>
+  <si>
+    <t>f42651174f1a6b4816402d49b83eb262</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.f2fca39e071b6d9f1a7eca4ac9815d5b28d703a00f5f51e241f8641459f3c14d.c008dd67a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.35c40894906a63babea080cbbaafd3e1af17659adb8ddb3754d83bed2f46d4ac.66479d6e07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3925,10 +3925,10 @@
   <dimension ref="A1:W748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J190" sqref="J190"/>
+      <selection pane="bottomRight" activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11003,7 +11003,7 @@
         <v>442</v>
       </c>
       <c r="F189" s="48">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="G189" s="48" t="s">
         <v>464</v>
@@ -11012,7 +11012,7 @@
         <v>466</v>
       </c>
       <c r="I189" s="49" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J189" s="50" t="s">
         <v>62</v>
@@ -11050,7 +11050,7 @@
         <v>443</v>
       </c>
       <c r="F190" s="48">
-        <v>46056</v>
+        <v>46059</v>
       </c>
       <c r="G190" s="48" t="s">
         <v>465</v>
@@ -11059,7 +11059,7 @@
         <v>467</v>
       </c>
       <c r="I190" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J190" s="50" t="s">
         <v>62</v>
@@ -17368,18 +17368,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17527,6 +17527,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17539,14 +17547,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
